--- a/毕业设计相关/数据库设计/实验教学平台_数据库表.xlsx
+++ b/毕业设计相关/数据库设计/实验教学平台_数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19530" windowHeight="7500"/>
+    <workbookView windowWidth="20385" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t xml:space="preserve">实验教学管理系统-数据库表
 </t>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>CSY150</t>
+  </si>
+  <si>
+    <t>SY16</t>
+  </si>
+  <si>
+    <t>资源类型表</t>
+  </si>
+  <si>
+    <t>CSY160</t>
   </si>
 </sst>
 </file>
@@ -171,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -192,19 +201,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -214,45 +224,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,16 +237,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +276,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -304,36 +343,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -344,25 +353,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,37 +485,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,115 +521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,41 +562,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,17 +597,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,11 +638,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,16 +679,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,115 +697,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,10 +1163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1388,6 +1397,17 @@
       </c>
       <c r="C21" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/毕业设计相关/数据库设计/实验教学平台_数据库表.xlsx
+++ b/毕业设计相关/数据库设计/实验教学平台_数据库表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8085"/>
+    <workbookView windowWidth="19665" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t xml:space="preserve">实验教学管理系统-数据库表
 </t>
@@ -173,6 +173,24 @@
   </si>
   <si>
     <t>CSY160</t>
+  </si>
+  <si>
+    <t>SY17</t>
+  </si>
+  <si>
+    <t>日志信息表</t>
+  </si>
+  <si>
+    <t>CSY170</t>
+  </si>
+  <si>
+    <t>AA10</t>
+  </si>
+  <si>
+    <t>字典表</t>
+  </si>
+  <si>
+    <t>AAA100+AAA102</t>
   </si>
 </sst>
 </file>
@@ -180,10 +198,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -200,6 +218,75 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -208,7 +295,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,10 +309,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,32 +325,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,70 +349,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -353,13 +371,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,169 +539,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,17 +580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -584,6 +591,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,39 +654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -659,6 +668,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -667,10 +685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,133 +697,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,10 +1181,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1408,6 +1426,28 @@
       </c>
       <c r="C22" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
